--- a/Source_Data/Source Data for Figure 4.xlsx
+++ b/Source_Data/Source Data for Figure 4.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo.Lenovo-PC\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A311EC4-B0FC-4A60-BA3E-6809626E1583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20580" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Figure 4h" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" refMode="R1C1"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -95,8 +89,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +113,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -137,15 +138,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -203,7 +208,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -238,7 +243,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -415,31 +420,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA29A0D5-54B0-477A-A662-8A6724EE6BB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" s="1" customFormat="1">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" s="1" customFormat="1">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -459,804 +464,804 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7">
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6">
-        <v>0.30439670000000002</v>
+        <v>0.39567352500000003</v>
       </c>
       <c r="D6">
-        <v>0.61204049999999999</v>
+        <v>0.61204046202720497</v>
       </c>
       <c r="E6">
-        <v>-0.17018420000000001</v>
+        <v>-0.17018423796667001</v>
       </c>
       <c r="F6">
-        <v>8.2260019999999994</v>
+        <v>8.2260023044632398</v>
       </c>
       <c r="G6">
-        <v>6.4301560000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+        <v>6.4301564135725204</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="C7">
-        <v>6.6895300000000005E-2</v>
+        <v>0.15863666200000001</v>
       </c>
       <c r="D7">
-        <v>0.39359</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>-0.28939559999999998</v>
+        <v>-0.28939563169381599</v>
       </c>
       <c r="F7">
-        <v>2.6316350000000002</v>
+        <v>2.6316346125790999</v>
       </c>
       <c r="G7">
-        <v>3.2816740000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+        <v>3.2816737608476201</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
       <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="C8">
-        <v>3.9317220999999999E-2</v>
+        <v>0.150102293</v>
       </c>
       <c r="D8">
-        <v>0.23381571900000001</v>
+        <v>0.39161263302914201</v>
       </c>
       <c r="E8">
-        <v>-0.42717649200000002</v>
+        <v>-0.22773010123770701</v>
       </c>
       <c r="F8">
-        <v>5.8052020000000004</v>
+        <v>5.8052022685611497</v>
       </c>
       <c r="G8">
-        <v>4.4867610000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+        <v>4.4867611223086694</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
       <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.108181903</v>
+        <v>0.29197169499999998</v>
       </c>
       <c r="D9">
-        <v>0.28302724699999998</v>
+        <v>0.47666900675363105</v>
       </c>
       <c r="E9">
-        <v>-0.33242699199999998</v>
+        <v>-0.38900794398218297</v>
       </c>
       <c r="F9">
-        <v>2.6069879999999999</v>
+        <v>2.6069884994238102</v>
       </c>
       <c r="G9">
-        <v>2.9016160000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+        <v>2.9016161379499796</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
       <c r="B10" t="s">
         <v>3</v>
       </c>
       <c r="C10">
-        <v>9.7093509999999997E-3</v>
+        <v>0.15873228</v>
       </c>
       <c r="D10">
-        <v>0.10394653299999999</v>
+        <v>0.203493087335651</v>
       </c>
       <c r="E10">
-        <v>-0.59364331100000001</v>
+        <v>-0.52437161656317699</v>
       </c>
       <c r="F10">
-        <v>5.6986520000000001</v>
+        <v>5.6986524335161199</v>
       </c>
       <c r="G10">
-        <v>2.5586730000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+        <v>2.5586726559558799</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11">
-        <v>5.5152300000000001E-2</v>
+        <v>0.13697411500000001</v>
       </c>
       <c r="D11">
-        <v>3.2539128E-2</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>5.7049900000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>2.5218289999999999</v>
+        <v>2.5218285905537199</v>
       </c>
       <c r="G11">
-        <v>2.6524079999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+        <v>2.6524077539618802</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12">
-        <v>-0.18235779999999999</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0.70647797099999998</v>
+        <v>0.706477971096233</v>
       </c>
       <c r="E12">
-        <v>-9.9667699999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>5.445532</v>
+        <v>5.4455322982742294</v>
       </c>
       <c r="G12">
-        <v>7.4719179999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+        <v>7.4719175315698205</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13">
-        <v>0.15291299999999999</v>
+        <v>0.16349369699999999</v>
       </c>
       <c r="D13">
-        <v>0.55208331600000005</v>
+        <v>0.55208331608970995</v>
       </c>
       <c r="E13">
-        <v>-0.1470756</v>
+        <v>-0.147075633019738</v>
       </c>
       <c r="F13">
-        <v>4.4285180000000004</v>
+        <v>4.4285179223545894</v>
       </c>
       <c r="G13">
-        <v>0.71172800000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14">
-        <v>1.516693E-2</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0.53766686600000002</v>
+        <v>1.0460036182896599</v>
       </c>
       <c r="E14">
-        <v>0.12379285399999999</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>9.1114490000000004</v>
+        <v>9.1114489340054803</v>
       </c>
       <c r="G14">
-        <v>6.5326839999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+        <v>6.5326844853975992</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15">
-        <v>0.22526979599999999</v>
+        <v>0.40560435299999997</v>
       </c>
       <c r="D15">
-        <v>8.3921607999999995E-2</v>
+        <v>0.160082059617177</v>
       </c>
       <c r="E15">
-        <v>0.109664285</v>
+        <v>0.11535982657128799</v>
       </c>
       <c r="F15">
-        <v>2.7660110000000002</v>
+        <v>2.7660112841183402</v>
       </c>
       <c r="G15">
-        <v>4.9436879999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+        <v>4.9436884005262698</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16">
-        <v>9.0066770000000004E-2</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0.28220207899999999</v>
+        <v>0.63206027617111293</v>
       </c>
       <c r="E16">
-        <v>-0.44302548800000002</v>
+        <v>-0.52011415193690702</v>
       </c>
       <c r="F16">
-        <v>2.5671339999999998</v>
+        <v>2.5671343510765601</v>
       </c>
       <c r="G16">
-        <v>0.22119800000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
       <c r="B17" t="s">
         <v>9</v>
       </c>
       <c r="C17">
-        <v>-0.114157194</v>
+        <v>-6.1625026999999999E-2</v>
       </c>
       <c r="D17">
-        <v>-0.1005042</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>-0.3650487</v>
+        <v>-0.36504873367137702</v>
       </c>
       <c r="F17">
-        <v>7.4327629999999996</v>
+        <v>7.4327625210952304</v>
       </c>
       <c r="G17">
-        <v>4.6814530000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+        <v>4.6814526265060694</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="C18">
-        <v>0.22765790999999999</v>
+        <v>0.24625941500000001</v>
       </c>
       <c r="D18">
-        <v>0.51761080000000004</v>
+        <v>0.51761084341687802</v>
       </c>
       <c r="E18">
-        <v>-0.18245649999999999</v>
+        <v>-0.18245646297040402</v>
       </c>
       <c r="F18">
-        <v>4.3759490000000003</v>
+        <v>4.37594924980157</v>
       </c>
       <c r="G18">
-        <v>5.2982500000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+        <v>5.2982501341192902</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
       <c r="B19" t="s">
         <v>9</v>
       </c>
       <c r="C19">
-        <v>-4.8419881999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.23373759999999999</v>
+        <v>0.233737569664622</v>
       </c>
       <c r="E19">
-        <v>-0.36375689999999999</v>
+        <v>-0.36375694193024199</v>
       </c>
       <c r="F19">
-        <v>3.1811829999999999</v>
+        <v>3.18118265413099</v>
       </c>
       <c r="G19">
-        <v>2.75474</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+        <v>2.7547399555168899</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
       <c r="B20" t="s">
         <v>9</v>
       </c>
       <c r="C20">
-        <v>-0.150395591</v>
+        <v>-0.29908092400000003</v>
       </c>
       <c r="D20">
-        <v>9.7779732999999994E-2</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>-0.317732705</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>6.2624700000000004</v>
+        <v>6.2624695171537601</v>
       </c>
       <c r="G20">
-        <v>5.547072</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+        <v>5.5470719500213201</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
       <c r="B21" t="s">
         <v>9</v>
       </c>
       <c r="C21">
-        <v>-0.14139855900000001</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.22315787400000001</v>
+        <v>0.58349223779237502</v>
       </c>
       <c r="E21">
-        <v>-0.544535985</v>
+        <v>-0.42784668801580999</v>
       </c>
       <c r="F21">
-        <v>6.9178649999999999</v>
+        <v>6.9178647468974699</v>
       </c>
       <c r="G21">
-        <v>2.1186389999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+        <v>2.1186390093694101</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
       <c r="B22" t="s">
         <v>9</v>
       </c>
       <c r="C22">
-        <v>3.6566513000000002E-2</v>
+        <v>0.166167604</v>
       </c>
       <c r="D22">
-        <v>0.10139848999999999</v>
+        <v>0.31602611573251899</v>
       </c>
       <c r="E22">
-        <v>-0.368481911</v>
+        <v>-0.321279677975775</v>
       </c>
       <c r="F22">
-        <v>8.2674219999999998</v>
+        <v>8.2674216133822789</v>
       </c>
       <c r="G22">
-        <v>5.8491489999999997</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+        <v>5.8491492935846701</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
       <c r="B23" t="s">
         <v>10</v>
       </c>
       <c r="C23">
-        <v>9.9092700000000006E-2</v>
+        <v>0.18703092199999999</v>
       </c>
       <c r="D23">
-        <v>0.15153560399999999</v>
+        <v>0.151535604208338</v>
       </c>
       <c r="E23">
-        <v>-0.14899390000000001</v>
+        <v>-0.148993852332931</v>
       </c>
       <c r="F23">
-        <v>3.1081439999999998</v>
+        <v>3.10814434381536</v>
       </c>
       <c r="G23">
-        <v>5.3312210000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+        <v>5.3312210114023495</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
       <c r="B24" t="s">
         <v>10</v>
       </c>
       <c r="C24">
-        <v>-0.1160238</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>3.416999E-3</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1105753</v>
+        <v>0.11057532921107699</v>
       </c>
       <c r="F24">
-        <v>1.312333</v>
+        <v>1.3123328476742</v>
       </c>
       <c r="G24">
-        <v>1.250237</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+        <v>1.2502374252884099</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
       <c r="B25" t="s">
         <v>10</v>
       </c>
       <c r="C25">
-        <v>0.10546320000000001</v>
+        <v>0.10681896</v>
       </c>
       <c r="D25">
-        <v>0.108136921</v>
+        <v>0.10813692118718</v>
       </c>
       <c r="E25">
-        <v>-1.2168E-2</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1.8057479999999999</v>
+        <v>1.8057481733891898</v>
       </c>
       <c r="G25">
-        <v>0.51807599999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+        <v>0.51807573969432597</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
       <c r="B26" t="s">
         <v>10</v>
       </c>
       <c r="C26">
-        <v>-4.5044807999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>5.6775513999999999E-2</v>
+        <v>0.109555842534246</v>
       </c>
       <c r="E26">
-        <v>-0.268025754</v>
+        <v>-0.166235358255512</v>
       </c>
       <c r="F26">
-        <v>1.1773039999999999</v>
+        <v>1.17730367576515</v>
       </c>
       <c r="G26">
-        <v>1.1574390000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+        <v>1.15743876356534</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
       <c r="B27" t="s">
         <v>10</v>
       </c>
       <c r="C27">
-        <v>-4.2535482999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>5.8915881000000003E-2</v>
+        <v>0.11848352089303901</v>
       </c>
       <c r="E27">
-        <v>-5.8447289999999999E-2</v>
+        <v>-9.3674040980047099E-2</v>
       </c>
       <c r="F27">
-        <v>1.7946420000000001</v>
+        <v>1.79464245919904</v>
       </c>
       <c r="G27">
-        <v>-1.1039999999999999E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
       <c r="B28" t="s">
         <v>11</v>
       </c>
       <c r="C28">
-        <v>-8.6561899999999994E-3</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>5.2720900000000001E-2</v>
+        <v>5.27208896292835E-2</v>
       </c>
       <c r="E28">
-        <v>-4.90762E-2</v>
+        <v>-4.9076179043330101E-2</v>
       </c>
       <c r="F28">
-        <v>0.52832699999999999</v>
+        <v>0.52832720669565902</v>
       </c>
       <c r="G28">
-        <v>0.130526</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
       <c r="B29" t="s">
         <v>11</v>
       </c>
       <c r="C29">
-        <v>1.6396600000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>0.18959870000000001</v>
+        <v>0.18959871128981801</v>
       </c>
       <c r="E29">
-        <v>-0.2085012</v>
+        <v>-0.20850120950941803</v>
       </c>
       <c r="F29">
-        <v>0.28213500000000002</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>-0.20177</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
       <c r="B30" t="s">
         <v>11</v>
       </c>
       <c r="C30">
-        <v>4.5689300000000002E-2</v>
+        <v>7.2850820999999996E-2</v>
       </c>
       <c r="D30">
-        <v>0.13982449999999999</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>-0.29140860000000002</v>
+        <v>-0.29140860621775899</v>
       </c>
       <c r="F30">
-        <v>1.036537</v>
+        <v>1.0365373515409899</v>
       </c>
       <c r="G30">
-        <v>2.9643269999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+        <v>2.96432706401822</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
       <c r="B31" t="s">
         <v>11</v>
       </c>
       <c r="C31">
-        <v>5.5735373999999997E-2</v>
+        <v>0.15818935100000001</v>
       </c>
       <c r="D31">
-        <v>0.13802335199999999</v>
+        <v>0.25019246063440104</v>
       </c>
       <c r="E31">
-        <v>-8.7561021000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>2.4316119999999999</v>
+        <v>2.4316124106038601</v>
       </c>
       <c r="G31">
-        <v>1.2029099999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+        <v>1.2029104340988699</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
       <c r="B32" t="s">
         <v>11</v>
       </c>
       <c r="C32">
-        <v>-8.6679993999999996E-2</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>0.26645238999999998</v>
+        <v>0.50038845798827492</v>
       </c>
       <c r="E32">
-        <v>-0.30864423000000002</v>
+        <v>-0.13128382148347401</v>
       </c>
       <c r="F32">
-        <v>-1.0923</v>
+        <v>-1.09230391879372</v>
       </c>
       <c r="G32">
-        <v>-1.1556999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+        <v>-1.1556966703279501</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
       <c r="B33" t="s">
         <v>11</v>
       </c>
       <c r="C33">
-        <v>0.105361803</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>-6.8616325000000006E-2</v>
+        <v>-0.109675847673381</v>
       </c>
       <c r="E33">
-        <v>-0.308693775</v>
+        <v>-0.47493021153424703</v>
       </c>
       <c r="F33">
-        <v>2.2886829999999998</v>
+        <v>2.2886827177135598</v>
       </c>
       <c r="G33">
-        <v>1.6664159999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+        <v>1.66641573199735</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
       <c r="B34" t="s">
         <v>12</v>
       </c>
       <c r="C34">
-        <v>-4.4455399999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>0.189762974</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>0.1791402</v>
+        <v>0.17914024251038499</v>
       </c>
       <c r="F34">
-        <v>4.2403440000000003</v>
+        <v>4.2403435526734903</v>
       </c>
       <c r="G34">
-        <v>2.674506</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+        <v>2.6745061336129803</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
       <c r="B35" t="s">
         <v>12</v>
       </c>
       <c r="C35">
-        <v>-0.1468458</v>
+        <v>-0.120294576</v>
       </c>
       <c r="D35">
-        <v>-1.6002922999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>-0.22682730000000001</v>
+        <v>-0.226827280416384</v>
       </c>
       <c r="F35">
-        <v>2.8663159999999999</v>
+        <v>2.8663163573580697</v>
       </c>
       <c r="G35">
-        <v>2.7429760000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+        <v>2.7429755805699401</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
       <c r="B36" t="s">
         <v>12</v>
       </c>
       <c r="C36">
-        <v>0.26461639999999997</v>
+        <v>0.30291793299999997</v>
       </c>
       <c r="D36">
-        <v>0.382941168</v>
+        <v>0.38294116787196997</v>
       </c>
       <c r="E36">
-        <v>-0.24502209999999999</v>
+        <v>-0.245022100548237</v>
       </c>
       <c r="F36">
-        <v>3.1070359999999999</v>
+        <v>3.1070363677994601</v>
       </c>
       <c r="G36">
-        <v>2.2098399999999998</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+        <v>2.2098404482695599</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
       <c r="B37" t="s">
         <v>12</v>
       </c>
       <c r="C37">
-        <v>-6.4803754000000005E-2</v>
+        <v>-8.8328314000000005E-2</v>
       </c>
       <c r="D37">
-        <v>6.7193199999999998E-4</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>-0.109658136</v>
+        <v>-0.105698633818171</v>
       </c>
       <c r="F37">
-        <v>1.096457</v>
+        <v>1.09645726382756</v>
       </c>
       <c r="G37">
-        <v>0.14306099999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
       <c r="B38" t="s">
         <v>12</v>
       </c>
       <c r="C38">
-        <v>-1.7249276000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>5.7470180000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>-9.2378774999999996E-2</v>
+        <v>-0.10480125433847401</v>
       </c>
       <c r="F38">
-        <v>0.89843899999999999</v>
+        <v>0.89843918891409891</v>
       </c>
       <c r="G38">
-        <v>-6.1769999999999999E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
       <c r="B39" t="s">
         <v>12</v>
       </c>
       <c r="C39">
-        <v>-7.1075134999999998E-2</v>
+        <v>-0.15456378100000001</v>
       </c>
       <c r="D39">
-        <v>1.4882922E-2</v>
+        <v>-9.6509024772045704E-2</v>
       </c>
       <c r="E39">
-        <v>-0.220204711</v>
+        <v>-0.21412272459447801</v>
       </c>
       <c r="F39">
-        <v>3.8218030000000001</v>
+        <v>3.8218033203159099</v>
       </c>
       <c r="G39">
-        <v>2.982723</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+        <v>2.9827230875099602</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
       <c r="B40" t="s">
         <v>13</v>
       </c>
       <c r="C40">
-        <v>-0.12801409999999999</v>
+        <v>-0.19696614200000001</v>
       </c>
       <c r="D40">
-        <v>5.9196855E-2</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>6.4107700000000004E-2</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>-0.20915</v>
+        <v>-0.209148287846701</v>
       </c>
       <c r="G40">
-        <v>0.158635</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
       <c r="B41" t="s">
         <v>13</v>
       </c>
       <c r="C41">
-        <v>2.4611299999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>5.7749170000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>-2.15599E-2</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0.16229299999999999</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>0.26332299999999997</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
       <c r="B42" t="s">
         <v>13</v>
       </c>
       <c r="C42">
-        <v>-4.5433899999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>5.0238018000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>0.55633889999999997</v>
+        <v>0.55633885842833208</v>
       </c>
       <c r="F42">
-        <v>-3.4869999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>-0.40249000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
       <c r="B43" t="s">
         <v>14</v>
       </c>
       <c r="C43">
-        <v>7.1291199999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>4.9435793999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>0.27096130000000002</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.10939699999999999</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>-1.3904000000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+        <v>-1.3903994731399301</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
       <c r="B44" t="s">
         <v>14</v>
       </c>
       <c r="C44">
-        <v>4.3554299999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>0.106821374</v>
+        <v>0.10682137437688199</v>
       </c>
       <c r="E44">
-        <v>-4.0725600000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0.36846499999999999</v>
+        <v>0.36846514873519504</v>
       </c>
       <c r="G44">
-        <v>3.3215000000000001E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
       <c r="B45" t="s">
         <v>14</v>
       </c>
       <c r="C45">
-        <v>4.5232300000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>4.9586734E-2</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>-3.8480899999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>7.2299000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>1.2048E-2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
